--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/F/15/seed4/result_data_KNN.xlsx
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.832</v>
+        <v>13.021</v>
       </c>
     </row>
     <row r="10">
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>13.526</v>
+        <v>12.894</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>12.918</v>
+        <v>12.972</v>
       </c>
     </row>
     <row r="21">
